--- a/testes.xlsx
+++ b/testes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>instancia</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>média dos tempos</t>
+  </si>
+  <si>
+    <t>variancia dos tempos</t>
   </si>
   <si>
     <t>eil51</t>
@@ -101,6 +104,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -186,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -200,7 +204,8 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8622448979592"/>
     <col collapsed="false" hidden="false" max="14" min="5" style="0" width="13.0051020408163"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,10 +254,13 @@
       <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>460</v>
@@ -300,7 +308,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2579</v>
@@ -348,7 +356,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>118282</v>
@@ -396,7 +404,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>538</v>
@@ -444,7 +452,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>629</v>
@@ -492,7 +500,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2378</v>
@@ -540,7 +548,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>29368</v>
@@ -588,7 +596,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>14379</v>
@@ -636,7 +644,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testes.xlsx
+++ b/testes.xlsx
@@ -15,18 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>instancia</t>
   </si>
   <si>
-    <t>resultado ótimo</t>
-  </si>
-  <si>
-    <t>resultado pré meta heurística</t>
-  </si>
-  <si>
-    <t>resultado final</t>
+    <t>$R_{E}$</t>
+  </si>
+  <si>
+    <t>$R_G$</t>
+  </si>
+  <si>
+    <t>$R_H$</t>
+  </si>
+  <si>
+    <t>$T_{exec}$</t>
+  </si>
+  <si>
+    <t>$Afast_{E-G}$</t>
+  </si>
+  <si>
+    <t>$mel_{G-H}$</t>
+  </si>
+  <si>
+    <t>$Afast_{E-H}$</t>
+  </si>
+  <si>
+    <t>$Amp$</t>
   </si>
   <si>
     <t>tempo1</t>
@@ -44,52 +59,40 @@
     <t>tempo5</t>
   </si>
   <si>
-    <t>tempo6</t>
-  </si>
-  <si>
-    <t>tempo7</t>
-  </si>
-  <si>
-    <t>tempo8</t>
-  </si>
-  <si>
-    <t>tempo9</t>
-  </si>
-  <si>
-    <t>tempo10</t>
-  </si>
-  <si>
-    <t>média dos tempos</t>
-  </si>
-  <si>
-    <t>variancia dos tempos</t>
-  </si>
-  <si>
-    <t>eil51</t>
+    <t>res1</t>
+  </si>
+  <si>
+    <t>res2</t>
+  </si>
+  <si>
+    <t>res3</t>
+  </si>
+  <si>
+    <t>res4</t>
+  </si>
+  <si>
+    <t>res5</t>
+  </si>
+  <si>
+    <t>kroA200</t>
+  </si>
+  <si>
+    <t>gil262</t>
   </si>
   <si>
     <t>a280</t>
   </si>
   <si>
-    <t>bier127</t>
-  </si>
-  <si>
-    <t>eil76</t>
-  </si>
-  <si>
-    <t>eil101</t>
-  </si>
-  <si>
-    <t>gil262</t>
-  </si>
-  <si>
-    <t>kroA200</t>
-  </si>
-  <si>
-    <t>lin105</t>
-  </si>
-  <si>
-    <t>\</t>
+    <t>pr439</t>
+  </si>
+  <si>
+    <t>rat575</t>
+  </si>
+  <si>
+    <t>rat783</t>
+  </si>
+  <si>
+    <t>pr1002</t>
   </si>
 </sst>
 </file>
@@ -164,12 +167,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,29 +189,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="5" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.05102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -236,415 +237,466 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>460</v>
+        <v>29368</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>816</v>
+        <v>101065</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>718</v>
+        <f aca="false">AVERAGE(Q2:U2)</f>
+        <v>61376.6</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>163.24473</v>
+        <f aca="false">AVERAGE(K2:O2)</f>
+        <v>3861.7464252</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>183.323256</v>
+        <f aca="false">(C2/B2) * 100</f>
+        <v>344.133070008172</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>156.698184</v>
+        <f aca="false">100 - (D2/C2) * 100</f>
+        <v>39.2701726611587</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>161.500421</v>
+        <f aca="false">(D2/B2) * 100</f>
+        <v>208.991419231817</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>166.498326</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>160.748406</v>
+        <f aca="false">MAX(Q2:U2) - MIN(Q2:U2)</f>
+        <v>6833</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>160.350636</v>
+        <v>3363.112562</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>160.459319</v>
+        <v>3441.387494</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>160.459319</v>
+        <v>3368.116938</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>176.349135</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <f aca="false">AVERAGE(E2:N2)</f>
-        <v>164.9631732</v>
+        <v>4756.491415</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>4379.623717</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>63466</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>64907</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>61758</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>58074</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>58678</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2579</v>
+        <v>2378</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4638</v>
+        <v>7411</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3343</v>
+        <f aca="false">AVERAGE(Q3:U3)</f>
+        <v>5007.6</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>66081.248227</v>
+        <f aca="false">AVERAGE(K3:O3)</f>
+        <v>8319.0839394</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>63573.893673</v>
+        <f aca="false">(C3/B3) * 100</f>
+        <v>311.648444070648</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>62441.769544</v>
+        <f aca="false">100 - (D3/C3) * 100</f>
+        <v>32.4301713668871</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>61946.882389</v>
+        <f aca="false">(B3/D3) * 100</f>
+        <v>47.4878185158559</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>62837.756052</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>62319.586713</v>
+        <f aca="false">MAX(Q3:U3) - MIN(Q3:U3)</f>
+        <v>590</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>63335.560706</v>
+        <v>7770.743109</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>62078.674229</v>
+        <v>6018.450928</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>62011.375793</v>
+        <v>8573.981132</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>62476.262354</v>
+        <v>9075.39854</v>
       </c>
       <c r="O3" s="0" t="n">
-        <f aca="false">AVERAGE(E3:N3)</f>
-        <v>62910.300968</v>
+        <v>10156.845988</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>5073</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>5322</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>4913</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>4998</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>4732</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>118282</v>
+        <v>2579</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>230110</v>
+        <v>4638</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>220241</v>
+        <f aca="false">AVERAGE(Q4:U4)</f>
+        <v>4018.4</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3019.825716</v>
+        <f aca="false">AVERAGE(K4:O4)</f>
+        <v>4576.9329306</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2958.991878</v>
+        <f aca="false">(C4/B4) * 100</f>
+        <v>179.83714618069</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2791.676363</v>
+        <f aca="false">100 - (D4/C4) * 100</f>
+        <v>13.3592065545494</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3017.946935</v>
+        <f aca="false">(D4/B4) * 100</f>
+        <v>155.812330360605</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>2778.48592</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>2935.25928</v>
+        <f aca="false">MAX(Q4:U4) - MIN(Q4:U4)</f>
+        <v>1023</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>2959.243831</v>
+        <v>6981.621125</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>3018.410229</v>
+        <v>1021.978953</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2870.321775</v>
+        <v>2851.137508</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2982.053278</v>
+        <v>3010.010532</v>
       </c>
       <c r="O4" s="0" t="n">
-        <f aca="false">AVERAGE(E4:N4)</f>
-        <v>2933.2215205</v>
+        <v>9019.916535</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>3722</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>4501</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>4202</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>4189</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>3478</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>538</v>
+        <v>107217</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1064</v>
+        <v>253682</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1021</v>
+        <f aca="false">AVERAGE(Q5:U5)</f>
+        <v>214716</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>512.108037</v>
+        <f aca="false">AVERAGE(K5:O5)</f>
+        <v>47195.7521944</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>531.051079</v>
+        <f aca="false">(C5/B5) * 100</f>
+        <v>236.606135221094</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>505.688817</v>
+        <f aca="false">100 - (D5/C5) * 100</f>
+        <v>15.3601753376274</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>503.893867</v>
+        <f aca="false">(D5/B5) * 100</f>
+        <v>200.26301799155</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>529.097583</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>500.940596</v>
+        <f aca="false">MAX(Q5:U5) - MIN(Q5:U5)</f>
+        <v>18773</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>518.143619</v>
+        <v>31724.474983</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>486.182223</v>
+        <v>58527.725871</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>498.579833</v>
+        <v>67180.367073</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>476.25043</v>
+        <v>37249.32659</v>
       </c>
       <c r="O5" s="0" t="n">
-        <f aca="false">AVERAGE(E5:N5)</f>
-        <v>506.1936084</v>
+        <v>41296.866455</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>223167</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>211074</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>204394</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>218219</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>216726</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>629</v>
+        <v>6773</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1607</v>
+        <v>15978</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1385</v>
+        <f aca="false">AVERAGE(Q6:U6)</f>
+        <v>12877.2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1261.408256</v>
+        <f aca="false">AVERAGE(K6:O6)</f>
+        <v>105020.7221476</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1291.346836</v>
+        <f aca="false">(C6/B6) * 100</f>
+        <v>235.907278901521</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1213.809201</v>
+        <f aca="false">100 - (D6/C6) * 100</f>
+        <v>19.4066841907623</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1271.410199</v>
+        <f aca="false">(D6/B6) * 100</f>
+        <v>190.125498302082</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1206.233283</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1222.242656</v>
+        <f aca="false">MAX(Q6:U6) - MIN(Q6:U6)</f>
+        <v>2368</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1440.325505</v>
+        <v>134058.884164</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1340.806098</v>
+        <v>110405.12786</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1198.257307</v>
+        <v>43366.730517</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>1271.772091</v>
+        <v>170509.277745</v>
       </c>
       <c r="O6" s="0" t="n">
-        <f aca="false">AVERAGE(E6:N6)</f>
-        <v>1271.7611432</v>
+        <v>66763.590452</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>12242</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>12811</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>14130</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>11762</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>13441</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2378</v>
+        <v>8806</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7411</v>
+        <v>22893</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>7212</v>
+        <f aca="false">AVERAGE(Q7:U7)</f>
+        <v>18479.3333333333</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>51444.790577</v>
+        <f aca="false">AVERAGE(K7:O7)</f>
+        <v>539205.376399333</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>47479.767477</v>
+        <f aca="false">(C7/B7) * 100</f>
+        <v>259.970474676357</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>44380.404761</v>
+        <f aca="false">100 - (D7/C7) * 100</f>
+        <v>19.2795468775026</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>44232.459661</v>
+        <f aca="false">(D7/B7) * 100</f>
+        <v>209.849345143463</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>44077.83914</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>44410.380961</v>
+        <f aca="false">MAX(Q7:U7) - MIN(Q7:U7)</f>
+        <v>453</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>45256.894327</v>
+        <v>486042.638409</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>44210.495919</v>
+        <v>586691.06474</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>43809.932166</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>44337.237089</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <f aca="false">AVERAGE(E7:N7)</f>
-        <v>45364.0202078</v>
+        <v>544882.426049</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>18515</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>18235</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>18688</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>29368</v>
+        <v>259045</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>101065</v>
+        <v>456475</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>98633</v>
+        <f aca="false">AVERAGE(Q8:U8)</f>
+        <v>418829</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>18157.902506</v>
+        <f aca="false">AVERAGE(K8:O8)</f>
+        <v>1486234.375664</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>20698.495517</v>
+        <f aca="false">(C8/B8) * 100</f>
+        <v>176.214557316296</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>20029.323591</v>
+        <f aca="false">100 - (D8/C8) * 100</f>
+        <v>8.24711101374665</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>24665.270211</v>
+        <f aca="false">(D8/B8) * 100</f>
+        <v>161.681947152039</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>24105.363109</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>23277.258699</v>
+        <f aca="false">MAX(Q8:U8) - MIN(Q8:U8)</f>
+        <v>53503</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>23463.853524</v>
+        <v>2251019.441154</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>24257.155189</v>
+        <v>97626.830045</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>23484.876534</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>24068.684346</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <f aca="false">AVERAGE(E8:N8)</f>
-        <v>22620.8183226</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>14379</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>28752</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>26115</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1841.647108</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1850.754013</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1504.350747</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1404.836648</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1385.731173</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1335.18325</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1346.909943</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1390.465372</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>1354.94509</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>1358.07066</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <f aca="false">AVERAGE(E9:N9)</f>
-        <v>1477.2894004</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O10" s="0" t="s">
-        <v>24</v>
+        <v>2110056.855793</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>402762</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>453614</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>400111</v>
       </c>
     </row>
   </sheetData>
